--- a/artfynd/A 3152-2022.xlsx
+++ b/artfynd/A 3152-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY16"/>
+  <dimension ref="A1:AY21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2482,6 +2482,584 @@
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>111821926</v>
+      </c>
+      <c r="B17" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Brunnsjöberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>550846.2444635418</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6681625.195240833</v>
+      </c>
+      <c r="S17" t="n">
+        <v>15</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>111821927</v>
+      </c>
+      <c r="B18" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Brunnsjöberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>550819.8901872271</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6681733.007140613</v>
+      </c>
+      <c r="S18" t="n">
+        <v>15</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>111821924</v>
+      </c>
+      <c r="B19" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Brunnsjöberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>550675.3931295178</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6681937.422269406</v>
+      </c>
+      <c r="S19" t="n">
+        <v>15</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>111821928</v>
+      </c>
+      <c r="B20" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Brunnsjöberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>550825.9503372401</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6681726.144349095</v>
+      </c>
+      <c r="S20" t="n">
+        <v>15</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>111821923</v>
+      </c>
+      <c r="B21" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Brunnsjöberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>550701.1291094749</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6681909.496304798</v>
+      </c>
+      <c r="S21" t="n">
+        <v>15</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Hedemora</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Philipp Weiss</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 3152-2022.xlsx
+++ b/artfynd/A 3152-2022.xlsx
@@ -2484,7 +2484,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111821926</v>
+        <v>111821927</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2524,10 +2524,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>550846.2444635418</v>
+        <v>550819.8901872271</v>
       </c>
       <c r="R17" t="n">
-        <v>6681625.195240833</v>
+        <v>6681733.007140613</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111821927</v>
+        <v>111821928</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2636,10 +2636,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>550819.8901872271</v>
+        <v>550825.9503372401</v>
       </c>
       <c r="R18" t="n">
-        <v>6681733.007140613</v>
+        <v>6681726.144349095</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111821924</v>
+        <v>111821926</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2742,24 +2742,16 @@
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Brunnsjöberget, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>550675.3931295178</v>
+        <v>550846.2444635418</v>
       </c>
       <c r="R19" t="n">
-        <v>6681937.422269406</v>
+        <v>6681625.195240833</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2810,7 +2802,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2829,7 +2820,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111821928</v>
+        <v>111821923</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2863,16 +2854,24 @@
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Brunnsjöberget, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>550825.9503372401</v>
+        <v>550701.1291094749</v>
       </c>
       <c r="R20" t="n">
-        <v>6681726.144349095</v>
+        <v>6681909.496304798</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2923,6 +2922,7 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2941,7 +2941,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111821923</v>
+        <v>111821924</v>
       </c>
       <c r="B21" t="n">
         <v>96348</v>
@@ -2989,10 +2989,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>550701.1291094749</v>
+        <v>550675.3931295178</v>
       </c>
       <c r="R21" t="n">
-        <v>6681909.496304798</v>
+        <v>6681937.422269406</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>

--- a/artfynd/A 3152-2022.xlsx
+++ b/artfynd/A 3152-2022.xlsx
@@ -2484,7 +2484,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111821927</v>
+        <v>111821924</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2518,16 +2518,24 @@
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Brunnsjöberget, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>550819.8901872271</v>
+        <v>550675.3931295178</v>
       </c>
       <c r="R17" t="n">
-        <v>6681733.007140613</v>
+        <v>6681937.422269406</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2578,6 +2586,7 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2596,7 +2605,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111821928</v>
+        <v>111821923</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2630,16 +2639,24 @@
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Brunnsjöberget, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>550825.9503372401</v>
+        <v>550701.1291094749</v>
       </c>
       <c r="R18" t="n">
-        <v>6681726.144349095</v>
+        <v>6681909.496304798</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2690,6 +2707,7 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2708,7 +2726,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111821926</v>
+        <v>111821927</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2748,10 +2766,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>550846.2444635418</v>
+        <v>550819.8901872271</v>
       </c>
       <c r="R19" t="n">
-        <v>6681625.195240833</v>
+        <v>6681733.007140613</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2820,7 +2838,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111821923</v>
+        <v>111821928</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2854,24 +2872,16 @@
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Brunnsjöberget, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>550701.1291094749</v>
+        <v>550825.9503372401</v>
       </c>
       <c r="R20" t="n">
-        <v>6681909.496304798</v>
+        <v>6681726.144349095</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2922,7 +2932,6 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2941,7 +2950,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111821924</v>
+        <v>111821926</v>
       </c>
       <c r="B21" t="n">
         <v>96348</v>
@@ -2975,24 +2984,16 @@
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Brunnsjöberget, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>550675.3931295178</v>
+        <v>550846.2444635418</v>
       </c>
       <c r="R21" t="n">
-        <v>6681937.422269406</v>
+        <v>6681625.195240833</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -3043,7 +3044,6 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 3152-2022.xlsx
+++ b/artfynd/A 3152-2022.xlsx
@@ -2605,7 +2605,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111821923</v>
+        <v>111821926</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2639,24 +2639,16 @@
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Brunnsjöberget, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>550701.1291094749</v>
+        <v>550846.2444635418</v>
       </c>
       <c r="R18" t="n">
-        <v>6681909.496304798</v>
+        <v>6681625.195240833</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2707,7 +2699,6 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2726,7 +2717,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111821927</v>
+        <v>111821928</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2766,10 +2757,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>550819.8901872271</v>
+        <v>550825.9503372401</v>
       </c>
       <c r="R19" t="n">
-        <v>6681733.007140613</v>
+        <v>6681726.144349095</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2838,7 +2829,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111821928</v>
+        <v>111821927</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2878,10 +2869,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>550825.9503372401</v>
+        <v>550819.8901872271</v>
       </c>
       <c r="R20" t="n">
-        <v>6681726.144349095</v>
+        <v>6681733.007140613</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2950,7 +2941,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111821926</v>
+        <v>111821923</v>
       </c>
       <c r="B21" t="n">
         <v>96348</v>
@@ -2984,16 +2975,24 @@
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Brunnsjöberget, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>550846.2444635418</v>
+        <v>550701.1291094749</v>
       </c>
       <c r="R21" t="n">
-        <v>6681625.195240833</v>
+        <v>6681909.496304798</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -3044,6 +3043,7 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 3152-2022.xlsx
+++ b/artfynd/A 3152-2022.xlsx
@@ -2484,7 +2484,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111821924</v>
+        <v>111821926</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2518,24 +2518,16 @@
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Brunnsjöberget, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>550675.3931295178</v>
+        <v>550846.2444635418</v>
       </c>
       <c r="R17" t="n">
-        <v>6681937.422269406</v>
+        <v>6681625.195240833</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2586,7 +2578,6 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2605,7 +2596,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111821926</v>
+        <v>111821927</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2645,10 +2636,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>550846.2444635418</v>
+        <v>550819.8901872271</v>
       </c>
       <c r="R18" t="n">
-        <v>6681625.195240833</v>
+        <v>6681733.007140613</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2717,7 +2708,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111821928</v>
+        <v>111821924</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2751,16 +2742,24 @@
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Brunnsjöberget, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>550825.9503372401</v>
+        <v>550675.3931295178</v>
       </c>
       <c r="R19" t="n">
-        <v>6681726.144349095</v>
+        <v>6681937.422269406</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2811,6 +2810,7 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2829,7 +2829,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111821927</v>
+        <v>111821928</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2869,10 +2869,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>550819.8901872271</v>
+        <v>550825.9503372401</v>
       </c>
       <c r="R20" t="n">
-        <v>6681733.007140613</v>
+        <v>6681726.144349095</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>

--- a/artfynd/A 3152-2022.xlsx
+++ b/artfynd/A 3152-2022.xlsx
@@ -2484,7 +2484,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111821926</v>
+        <v>111821927</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2524,10 +2524,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>550846.2444635418</v>
+        <v>550819.8901872271</v>
       </c>
       <c r="R17" t="n">
-        <v>6681625.195240833</v>
+        <v>6681733.007140613</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111821927</v>
+        <v>111821926</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2636,10 +2636,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>550819.8901872271</v>
+        <v>550846.2444635418</v>
       </c>
       <c r="R18" t="n">
-        <v>6681733.007140613</v>
+        <v>6681625.195240833</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>

--- a/artfynd/A 3152-2022.xlsx
+++ b/artfynd/A 3152-2022.xlsx
@@ -2484,7 +2484,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111821927</v>
+        <v>111821928</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2524,10 +2524,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>550819.8901872271</v>
+        <v>550825.9503372401</v>
       </c>
       <c r="R17" t="n">
-        <v>6681733.007140613</v>
+        <v>6681726.144349095</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111821926</v>
+        <v>111821927</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2636,10 +2636,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>550846.2444635418</v>
+        <v>550819.8901872271</v>
       </c>
       <c r="R18" t="n">
-        <v>6681625.195240833</v>
+        <v>6681733.007140613</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111821924</v>
+        <v>111821923</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2756,10 +2756,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>550675.3931295178</v>
+        <v>550701.1291094749</v>
       </c>
       <c r="R19" t="n">
-        <v>6681937.422269406</v>
+        <v>6681909.496304798</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2829,7 +2829,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111821928</v>
+        <v>111821926</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2869,10 +2869,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>550825.9503372401</v>
+        <v>550846.2444635418</v>
       </c>
       <c r="R20" t="n">
-        <v>6681726.144349095</v>
+        <v>6681625.195240833</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2941,7 +2941,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111821923</v>
+        <v>111821924</v>
       </c>
       <c r="B21" t="n">
         <v>96348</v>
@@ -2989,10 +2989,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>550701.1291094749</v>
+        <v>550675.3931295178</v>
       </c>
       <c r="R21" t="n">
-        <v>6681909.496304798</v>
+        <v>6681937.422269406</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>

--- a/artfynd/A 3152-2022.xlsx
+++ b/artfynd/A 3152-2022.xlsx
@@ -2484,7 +2484,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111821928</v>
+        <v>111821927</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2524,10 +2524,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>550825.9503372401</v>
+        <v>550819.8901872271</v>
       </c>
       <c r="R17" t="n">
-        <v>6681726.144349095</v>
+        <v>6681733.007140613</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111821927</v>
+        <v>111821926</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2636,10 +2636,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>550819.8901872271</v>
+        <v>550846.2444635418</v>
       </c>
       <c r="R18" t="n">
-        <v>6681733.007140613</v>
+        <v>6681625.195240833</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2829,7 +2829,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111821926</v>
+        <v>111821928</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2869,10 +2869,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>550846.2444635418</v>
+        <v>550825.9503372401</v>
       </c>
       <c r="R20" t="n">
-        <v>6681625.195240833</v>
+        <v>6681726.144349095</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>

--- a/artfynd/A 3152-2022.xlsx
+++ b/artfynd/A 3152-2022.xlsx
@@ -2484,7 +2484,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111821927</v>
+        <v>111821924</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2518,16 +2518,24 @@
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Brunnsjöberget, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>550819.8901872271</v>
+        <v>550675.3931295178</v>
       </c>
       <c r="R17" t="n">
-        <v>6681733.007140613</v>
+        <v>6681937.422269406</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2578,6 +2586,7 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2596,7 +2605,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111821926</v>
+        <v>111821923</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2630,16 +2639,24 @@
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Brunnsjöberget, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>550846.2444635418</v>
+        <v>550701.1291094749</v>
       </c>
       <c r="R18" t="n">
-        <v>6681625.195240833</v>
+        <v>6681909.496304798</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2690,6 +2707,7 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2708,7 +2726,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111821923</v>
+        <v>111821927</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2742,24 +2760,16 @@
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Brunnsjöberget, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>550701.1291094749</v>
+        <v>550819.8901872271</v>
       </c>
       <c r="R19" t="n">
-        <v>6681909.496304798</v>
+        <v>6681733.007140613</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2810,7 +2820,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2829,7 +2838,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111821928</v>
+        <v>111821926</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2869,10 +2878,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>550825.9503372401</v>
+        <v>550846.2444635418</v>
       </c>
       <c r="R20" t="n">
-        <v>6681726.144349095</v>
+        <v>6681625.195240833</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2941,7 +2950,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111821924</v>
+        <v>111821928</v>
       </c>
       <c r="B21" t="n">
         <v>96348</v>
@@ -2975,24 +2984,16 @@
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Brunnsjöberget, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>550675.3931295178</v>
+        <v>550825.9503372401</v>
       </c>
       <c r="R21" t="n">
-        <v>6681937.422269406</v>
+        <v>6681726.144349095</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -3043,7 +3044,6 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 3152-2022.xlsx
+++ b/artfynd/A 3152-2022.xlsx
@@ -2484,7 +2484,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111821924</v>
+        <v>111821926</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2518,24 +2518,16 @@
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Brunnsjöberget, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>550675.3931295178</v>
+        <v>550846</v>
       </c>
       <c r="R17" t="n">
-        <v>6681937.422269406</v>
+        <v>6681625</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2565,28 +2557,17 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2605,7 +2586,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111821923</v>
+        <v>111821927</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2639,24 +2620,16 @@
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Brunnsjöberget, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>550701.1291094749</v>
+        <v>550820</v>
       </c>
       <c r="R18" t="n">
-        <v>6681909.496304798</v>
+        <v>6681733</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2686,28 +2659,17 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2726,7 +2688,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111821927</v>
+        <v>111821924</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2760,16 +2722,24 @@
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Brunnsjöberget, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>550819.8901872271</v>
+        <v>550675</v>
       </c>
       <c r="R19" t="n">
-        <v>6681733.007140613</v>
+        <v>6681937</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2799,27 +2769,18 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2838,7 +2799,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111821926</v>
+        <v>111821928</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2878,10 +2839,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>550846.2444635418</v>
+        <v>550826</v>
       </c>
       <c r="R20" t="n">
-        <v>6681625.195240833</v>
+        <v>6681726</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2911,19 +2872,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2950,7 +2901,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111821928</v>
+        <v>111821923</v>
       </c>
       <c r="B21" t="n">
         <v>96348</v>
@@ -2984,16 +2935,24 @@
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Brunnsjöberget, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>550825.9503372401</v>
+        <v>550701</v>
       </c>
       <c r="R21" t="n">
-        <v>6681726.144349095</v>
+        <v>6681909</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -3023,27 +2982,18 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 3152-2022.xlsx
+++ b/artfynd/A 3152-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>98436674</v>
+        <v>98437200</v>
       </c>
       <c r="B2" t="n">
-        <v>96334</v>
+        <v>89392</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,40 +692,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Hedemora, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>550811.9942021057</v>
+        <v>550596.0812491665</v>
       </c>
       <c r="R2" t="n">
-        <v>6681728.927398137</v>
+        <v>6682137.276472023</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -757,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:06</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -767,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:06</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -794,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>98437200</v>
+        <v>98437017</v>
       </c>
       <c r="B3" t="n">
         <v>89392</v>
@@ -835,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>550596.0812491665</v>
+        <v>550649.9676459744</v>
       </c>
       <c r="R3" t="n">
-        <v>6682137.276472023</v>
+        <v>6682157.870730018</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -870,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -880,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -907,7 +906,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98438123</v>
+        <v>98436946</v>
       </c>
       <c r="B4" t="n">
         <v>96334</v>
@@ -957,10 +956,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>550871.4584056779</v>
+        <v>550655.1615493884</v>
       </c>
       <c r="R4" t="n">
-        <v>6681634.975127632</v>
+        <v>6682070.120034037</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -992,7 +991,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1002,7 +1001,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1029,7 +1028,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>98436593</v>
+        <v>98437518</v>
       </c>
       <c r="B5" t="n">
         <v>96334</v>
@@ -1064,7 +1063,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1079,10 +1078,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>550795.2496981776</v>
+        <v>550736.8251879164</v>
       </c>
       <c r="R5" t="n">
-        <v>6681717.777328269</v>
+        <v>6681915.946778776</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1114,7 +1113,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>14:57</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1124,7 +1123,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>14:57</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1151,10 +1150,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>98437017</v>
+        <v>98437457</v>
       </c>
       <c r="B6" t="n">
-        <v>89392</v>
+        <v>96334</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1163,39 +1162,48 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>vinterståndare</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Hedemora, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>550649.9676459744</v>
+        <v>550742.353779427</v>
       </c>
       <c r="R6" t="n">
-        <v>6682157.870730018</v>
+        <v>6681947.284176982</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1227,7 +1235,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1237,7 +1245,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:53</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1264,7 +1272,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>98436946</v>
+        <v>98436831</v>
       </c>
       <c r="B7" t="n">
         <v>96334</v>
@@ -1314,10 +1322,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>550655.1615493884</v>
+        <v>550677.6219279971</v>
       </c>
       <c r="R7" t="n">
-        <v>6682070.120034037</v>
+        <v>6681920.086247353</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1349,7 +1357,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1359,7 +1367,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1386,7 +1394,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>98437518</v>
+        <v>98436803</v>
       </c>
       <c r="B8" t="n">
         <v>96334</v>
@@ -1436,10 +1444,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>550736.8251879164</v>
+        <v>550694.9860234373</v>
       </c>
       <c r="R8" t="n">
-        <v>6681915.946778776</v>
+        <v>6681886.585616929</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1471,7 +1479,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:57</t>
+          <t>14:13</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1481,7 +1489,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:57</t>
+          <t>14:13</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1508,10 +1516,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>98437977</v>
+        <v>111821923</v>
       </c>
       <c r="B9" t="n">
-        <v>96334</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1541,30 +1549,28 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>vinterståndare</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Hedemora, Dlr</t>
+          <t>Brunnsjöberget, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>550880.5677923895</v>
+        <v>550701</v>
       </c>
       <c r="R9" t="n">
-        <v>6681694.650387281</v>
+        <v>6681909</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1588,22 +1594,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2022-02-02</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>15:12</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2022-02-02</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>15:12</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1612,6 +1608,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1630,10 +1627,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>98437457</v>
+        <v>111821924</v>
       </c>
       <c r="B10" t="n">
-        <v>96334</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1663,30 +1660,28 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>vinterståndare</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Hedemora, Dlr</t>
+          <t>Brunnsjöberget, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>550742.353779427</v>
+        <v>550675</v>
       </c>
       <c r="R10" t="n">
-        <v>6681947.284176982</v>
+        <v>6681937</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1710,22 +1705,12 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2022-02-02</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>14:53</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2022-02-02</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>14:53</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1734,6 +1719,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1752,7 +1738,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>98436831</v>
+        <v>98436674</v>
       </c>
       <c r="B11" t="n">
         <v>96334</v>
@@ -1785,16 +1771,8 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>vinterståndare</t>
-        </is>
-      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1802,10 +1780,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>550677.6219279971</v>
+        <v>550811.9942021057</v>
       </c>
       <c r="R11" t="n">
-        <v>6681920.086247353</v>
+        <v>6681728.927398137</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1837,7 +1815,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1847,7 +1825,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1874,7 +1852,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>98437825</v>
+        <v>98438123</v>
       </c>
       <c r="B12" t="n">
         <v>96334</v>
@@ -1924,10 +1902,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>550841.0518199443</v>
+        <v>550871.4584056779</v>
       </c>
       <c r="R12" t="n">
-        <v>6681748.188602963</v>
+        <v>6681634.975127632</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1959,7 +1937,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1969,7 +1947,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1996,7 +1974,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>98437888</v>
+        <v>98436593</v>
       </c>
       <c r="B13" t="n">
         <v>96334</v>
@@ -2031,7 +2009,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2046,10 +2024,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>550878.5384669948</v>
+        <v>550795.2496981776</v>
       </c>
       <c r="R13" t="n">
-        <v>6681697.599488487</v>
+        <v>6681717.777328269</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2081,7 +2059,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2091,7 +2069,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2118,7 +2096,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>98438032</v>
+        <v>98437977</v>
       </c>
       <c r="B14" t="n">
         <v>96334</v>
@@ -2153,7 +2131,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2168,10 +2146,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>550845.7600182964</v>
+        <v>550880.5677923895</v>
       </c>
       <c r="R14" t="n">
-        <v>6681695.654033511</v>
+        <v>6681694.650387281</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2203,7 +2181,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2213,7 +2191,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2240,7 +2218,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>98438069</v>
+        <v>98437825</v>
       </c>
       <c r="B15" t="n">
         <v>96334</v>
@@ -2275,7 +2253,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2290,10 +2268,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>550850.9583909622</v>
+        <v>550841.0518199443</v>
       </c>
       <c r="R15" t="n">
-        <v>6681643.621779824</v>
+        <v>6681748.188602963</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2325,7 +2303,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2335,7 +2313,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2362,7 +2340,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>98436803</v>
+        <v>98437888</v>
       </c>
       <c r="B16" t="n">
         <v>96334</v>
@@ -2397,7 +2375,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2412,10 +2390,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>550694.9860234373</v>
+        <v>550878.5384669948</v>
       </c>
       <c r="R16" t="n">
-        <v>6681886.585616929</v>
+        <v>6681697.599488487</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2447,7 +2425,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>14:13</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2457,7 +2435,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>14:13</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2484,10 +2462,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111821926</v>
+        <v>98438032</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>96334</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2517,20 +2495,30 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>vinterståndare</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Brunnsjöberget, Dlr</t>
+          <t>Hedemora, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>550846</v>
+        <v>550845.7600182964</v>
       </c>
       <c r="R17" t="n">
-        <v>6681625</v>
+        <v>6681695.654033511</v>
       </c>
       <c r="S17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2554,12 +2542,22 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2022-02-02</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>15:15</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2022-02-02</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>15:15</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2586,10 +2584,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111821927</v>
+        <v>98438069</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>96334</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2619,20 +2617,30 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>vinterståndare</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Brunnsjöberget, Dlr</t>
+          <t>Hedemora, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>550820</v>
+        <v>550850.9583909622</v>
       </c>
       <c r="R18" t="n">
-        <v>6681733</v>
+        <v>6681643.621779824</v>
       </c>
       <c r="S18" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2656,12 +2664,22 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2022-02-02</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2022-02-02</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2688,7 +2706,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111821924</v>
+        <v>111821928</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2722,24 +2740,16 @@
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Brunnsjöberget, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>550675</v>
+        <v>550826</v>
       </c>
       <c r="R19" t="n">
-        <v>6681937</v>
+        <v>6681726</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2780,7 +2790,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2799,7 +2808,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111821928</v>
+        <v>111821927</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2839,10 +2848,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>550826</v>
+        <v>550820</v>
       </c>
       <c r="R20" t="n">
-        <v>6681726</v>
+        <v>6681733</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2901,7 +2910,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111821923</v>
+        <v>111821926</v>
       </c>
       <c r="B21" t="n">
         <v>96348</v>
@@ -2935,24 +2944,16 @@
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Brunnsjöberget, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>550701</v>
+        <v>550846</v>
       </c>
       <c r="R21" t="n">
-        <v>6681909</v>
+        <v>6681625</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2993,7 +2994,6 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 3152-2022.xlsx
+++ b/artfynd/A 3152-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>98437200</v>
+        <v>98436674</v>
       </c>
       <c r="B2" t="n">
-        <v>89392</v>
+        <v>96334</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,39 +692,40 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Hedemora, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>550596.0812491665</v>
+        <v>550811.9942021057</v>
       </c>
       <c r="R2" t="n">
-        <v>6682137.276472023</v>
+        <v>6681728.927398137</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +757,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +767,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>14:06</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,7 +794,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>98437017</v>
+        <v>98437200</v>
       </c>
       <c r="B3" t="n">
         <v>89392</v>
@@ -834,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>550649.9676459744</v>
+        <v>550596.0812491665</v>
       </c>
       <c r="R3" t="n">
-        <v>6682157.870730018</v>
+        <v>6682137.276472023</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +870,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +880,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:41</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,7 +907,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98436946</v>
+        <v>98438123</v>
       </c>
       <c r="B4" t="n">
         <v>96334</v>
@@ -956,10 +957,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>550655.1615493884</v>
+        <v>550871.4584056779</v>
       </c>
       <c r="R4" t="n">
-        <v>6682070.120034037</v>
+        <v>6681634.975127632</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -991,7 +992,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1001,7 +1002,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>15:19</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1028,7 +1029,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>98437518</v>
+        <v>98436593</v>
       </c>
       <c r="B5" t="n">
         <v>96334</v>
@@ -1063,7 +1064,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1078,10 +1079,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>550736.8251879164</v>
+        <v>550795.2496981776</v>
       </c>
       <c r="R5" t="n">
-        <v>6681915.946778776</v>
+        <v>6681717.777328269</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1113,7 +1114,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:57</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1123,7 +1124,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:57</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1150,10 +1151,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>98437457</v>
+        <v>98437017</v>
       </c>
       <c r="B6" t="n">
-        <v>96334</v>
+        <v>89392</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1162,48 +1163,39 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>vinterståndare</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Hedemora, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>550742.353779427</v>
+        <v>550649.9676459744</v>
       </c>
       <c r="R6" t="n">
-        <v>6681947.284176982</v>
+        <v>6682157.870730018</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1235,7 +1227,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:53</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1245,7 +1237,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:53</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1272,7 +1264,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>98436831</v>
+        <v>98436946</v>
       </c>
       <c r="B7" t="n">
         <v>96334</v>
@@ -1322,10 +1314,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>550677.6219279971</v>
+        <v>550655.1615493884</v>
       </c>
       <c r="R7" t="n">
-        <v>6681920.086247353</v>
+        <v>6682070.120034037</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1357,7 +1349,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1367,7 +1359,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:18</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1394,7 +1386,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>98436803</v>
+        <v>98437518</v>
       </c>
       <c r="B8" t="n">
         <v>96334</v>
@@ -1444,10 +1436,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>550694.9860234373</v>
+        <v>550736.8251879164</v>
       </c>
       <c r="R8" t="n">
-        <v>6681886.585616929</v>
+        <v>6681915.946778776</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1479,7 +1471,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:13</t>
+          <t>14:57</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1489,7 +1481,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:13</t>
+          <t>14:57</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1516,10 +1508,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111821923</v>
+        <v>98437977</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>96334</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1549,28 +1541,30 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>vinterståndare</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Brunnsjöberget, Dlr</t>
+          <t>Hedemora, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>550701</v>
+        <v>550880.5677923895</v>
       </c>
       <c r="R9" t="n">
-        <v>6681909</v>
+        <v>6681694.650387281</v>
       </c>
       <c r="S9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1594,12 +1588,22 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2022-02-02</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2022-02-02</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1608,7 +1612,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1627,10 +1630,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111821924</v>
+        <v>98437457</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>96334</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1660,28 +1663,30 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>vinterståndare</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Brunnsjöberget, Dlr</t>
+          <t>Hedemora, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>550675</v>
+        <v>550742.353779427</v>
       </c>
       <c r="R10" t="n">
-        <v>6681937</v>
+        <v>6681947.284176982</v>
       </c>
       <c r="S10" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1705,12 +1710,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2022-02-02</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>14:53</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2022-02-02</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>14:53</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1719,7 +1734,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1738,7 +1752,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>98436674</v>
+        <v>98436831</v>
       </c>
       <c r="B11" t="n">
         <v>96334</v>
@@ -1771,8 +1785,16 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>vinterståndare</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1780,10 +1802,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>550811.9942021057</v>
+        <v>550677.6219279971</v>
       </c>
       <c r="R11" t="n">
-        <v>6681728.927398137</v>
+        <v>6681920.086247353</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1815,7 +1837,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:06</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1825,7 +1847,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:06</t>
+          <t>14:18</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1852,7 +1874,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>98438123</v>
+        <v>98437825</v>
       </c>
       <c r="B12" t="n">
         <v>96334</v>
@@ -1902,10 +1924,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>550871.4584056779</v>
+        <v>550841.0518199443</v>
       </c>
       <c r="R12" t="n">
-        <v>6681634.975127632</v>
+        <v>6681748.188602963</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1937,7 +1959,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1947,7 +1969,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:19</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1974,7 +1996,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>98436593</v>
+        <v>98437888</v>
       </c>
       <c r="B13" t="n">
         <v>96334</v>
@@ -2009,7 +2031,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2024,10 +2046,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>550795.2496981776</v>
+        <v>550878.5384669948</v>
       </c>
       <c r="R13" t="n">
-        <v>6681717.777328269</v>
+        <v>6681697.599488487</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2059,7 +2081,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2069,7 +2091,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>15:10</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2096,7 +2118,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>98437977</v>
+        <v>98438032</v>
       </c>
       <c r="B14" t="n">
         <v>96334</v>
@@ -2131,7 +2153,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2146,10 +2168,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>550880.5677923895</v>
+        <v>550845.7600182964</v>
       </c>
       <c r="R14" t="n">
-        <v>6681694.650387281</v>
+        <v>6681695.654033511</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2181,7 +2203,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2191,7 +2213,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>15:12</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2218,7 +2240,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>98437825</v>
+        <v>98438069</v>
       </c>
       <c r="B15" t="n">
         <v>96334</v>
@@ -2253,7 +2275,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2268,10 +2290,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>550841.0518199443</v>
+        <v>550850.9583909622</v>
       </c>
       <c r="R15" t="n">
-        <v>6681748.188602963</v>
+        <v>6681643.621779824</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2303,7 +2325,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2313,7 +2335,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2340,7 +2362,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>98437888</v>
+        <v>98436803</v>
       </c>
       <c r="B16" t="n">
         <v>96334</v>
@@ -2375,7 +2397,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -2390,10 +2412,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>550878.5384669948</v>
+        <v>550694.9860234373</v>
       </c>
       <c r="R16" t="n">
-        <v>6681697.599488487</v>
+        <v>6681886.585616929</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2425,7 +2447,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>14:13</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2435,7 +2457,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>15:10</t>
+          <t>14:13</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2462,10 +2484,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>98438032</v>
+        <v>111821928</v>
       </c>
       <c r="B17" t="n">
-        <v>96334</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2495,30 +2517,20 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>vinterståndare</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Hedemora, Dlr</t>
+          <t>Brunnsjöberget, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>550845.7600182964</v>
+        <v>550826</v>
       </c>
       <c r="R17" t="n">
-        <v>6681695.654033511</v>
+        <v>6681726</v>
       </c>
       <c r="S17" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2542,22 +2554,12 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2022-02-02</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>15:15</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2022-02-02</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>15:15</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2584,10 +2586,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>98438069</v>
+        <v>111821927</v>
       </c>
       <c r="B18" t="n">
-        <v>96334</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2617,30 +2619,20 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>vinterståndare</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Hedemora, Dlr</t>
+          <t>Brunnsjöberget, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>550850.9583909622</v>
+        <v>550820</v>
       </c>
       <c r="R18" t="n">
-        <v>6681643.621779824</v>
+        <v>6681733</v>
       </c>
       <c r="S18" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2664,22 +2656,12 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2022-02-02</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>15:17</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2022-02-02</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>15:17</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2706,7 +2688,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111821928</v>
+        <v>111821923</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2740,16 +2722,24 @@
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Brunnsjöberget, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>550826</v>
+        <v>550701</v>
       </c>
       <c r="R19" t="n">
-        <v>6681726</v>
+        <v>6681909</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2790,6 +2780,7 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2808,7 +2799,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111821927</v>
+        <v>111821924</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2842,16 +2833,24 @@
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Brunnsjöberget, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>550820</v>
+        <v>550675</v>
       </c>
       <c r="R20" t="n">
-        <v>6681733</v>
+        <v>6681937</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2892,6 +2891,7 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
